--- a/Code/Results/Cases/Case_3_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.039185957114825</v>
+        <v>0.3554802434101418</v>
       </c>
       <c r="C2">
-        <v>0.1812844645767626</v>
+        <v>0.05660438742661711</v>
       </c>
       <c r="D2">
-        <v>0.08272823466146662</v>
+        <v>0.03757020545477019</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3991330262650408</v>
+        <v>0.6845382931069679</v>
       </c>
       <c r="G2">
-        <v>0.2981356489859976</v>
+        <v>0.5259383617795876</v>
       </c>
       <c r="H2">
-        <v>0.2791587779148159</v>
+        <v>0.675590038956436</v>
       </c>
       <c r="I2">
-        <v>0.2265348620242307</v>
+        <v>0.5198898788286144</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.157371405216026</v>
+        <v>0.3776068288211434</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9045477946176277</v>
+        <v>0.313734412238091</v>
       </c>
       <c r="C3">
-        <v>0.1586358945130684</v>
+        <v>0.04948523728137388</v>
       </c>
       <c r="D3">
-        <v>0.07481270568855791</v>
+        <v>0.03480088713079255</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3905532694842861</v>
+        <v>0.6896774899984806</v>
       </c>
       <c r="G3">
-        <v>0.2990413224599777</v>
+        <v>0.5326517035250475</v>
       </c>
       <c r="H3">
-        <v>0.2872981429653905</v>
+        <v>0.6834116675867463</v>
       </c>
       <c r="I3">
-        <v>0.23884042694214</v>
+        <v>0.5283536874320394</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.008240199074947</v>
+        <v>0.3311996585133841</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8219763668324163</v>
+        <v>0.2880747149133924</v>
       </c>
       <c r="C4">
-        <v>0.1447518085981301</v>
+        <v>0.04509613675492119</v>
       </c>
       <c r="D4">
-        <v>0.06994347414158142</v>
+        <v>0.03308921796278952</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3865262189234429</v>
+        <v>0.693384463098262</v>
       </c>
       <c r="G4">
-        <v>0.3008167537037139</v>
+        <v>0.5372680579063598</v>
       </c>
       <c r="H4">
-        <v>0.2930301021233603</v>
+        <v>0.688598519256459</v>
       </c>
       <c r="I4">
-        <v>0.2472115469156417</v>
+        <v>0.5339266446186581</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9167847040527874</v>
+        <v>0.3026548507440339</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7883402054914086</v>
+        <v>0.2776118224371089</v>
       </c>
       <c r="C5">
-        <v>0.1390969111647848</v>
+        <v>0.04330309629078499</v>
       </c>
       <c r="D5">
-        <v>0.06795649189849229</v>
+        <v>0.03238890267108729</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.385181711297669</v>
+        <v>0.6950335804331615</v>
       </c>
       <c r="G5">
-        <v>0.3018313799305616</v>
+        <v>0.5392732859679015</v>
       </c>
       <c r="H5">
-        <v>0.2955436762055044</v>
+        <v>0.6908088127185152</v>
       </c>
       <c r="I5">
-        <v>0.2508198105881689</v>
+        <v>0.5362921352305463</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8795299028530508</v>
+        <v>0.2910104686690431</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7827553562635785</v>
+        <v>0.275874100272631</v>
       </c>
       <c r="C6">
-        <v>0.1381580265386901</v>
+        <v>0.04300509646338924</v>
       </c>
       <c r="D6">
-        <v>0.06762637752647294</v>
+        <v>0.03227244827953513</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3849759284018432</v>
+        <v>0.6953157746269412</v>
       </c>
       <c r="G6">
-        <v>0.3020170022161466</v>
+        <v>0.5396137352564239</v>
       </c>
       <c r="H6">
-        <v>0.2959715936138352</v>
+        <v>0.6911816641711326</v>
       </c>
       <c r="I6">
-        <v>0.2514306269092277</v>
+        <v>0.536690625116206</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8733442267605085</v>
+        <v>0.2890762119579904</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.821522703076738</v>
+        <v>0.2879336336567917</v>
       </c>
       <c r="C7">
-        <v>0.144675535939399</v>
+        <v>0.04507197311023958</v>
       </c>
       <c r="D7">
-        <v>0.06991668863373945</v>
+        <v>0.03307978452823335</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3865069056549402</v>
+        <v>0.6934061431470369</v>
       </c>
       <c r="G7">
-        <v>0.3008292784843292</v>
+        <v>0.5372945993064349</v>
       </c>
       <c r="H7">
-        <v>0.2930632902216743</v>
+        <v>0.6886279369283201</v>
       </c>
       <c r="I7">
-        <v>0.2472594221282449</v>
+        <v>0.5339581641246927</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9162822337852958</v>
+        <v>0.3024978589132274</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9927350999089413</v>
+        <v>0.3410923409788609</v>
       </c>
       <c r="C8">
-        <v>0.1734689974360464</v>
+        <v>0.05415345510049008</v>
       </c>
       <c r="D8">
-        <v>0.08000055717464249</v>
+        <v>0.0366177148297453</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3959076013133469</v>
+        <v>0.6861957186165384</v>
       </c>
       <c r="G8">
-        <v>0.2981852914054883</v>
+        <v>0.5281503554570719</v>
       </c>
       <c r="H8">
-        <v>0.2818085546004454</v>
+        <v>0.6782071453807603</v>
       </c>
       <c r="I8">
-        <v>0.2306035878439232</v>
+        <v>0.5227300603538687</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.105919038757179</v>
+        <v>0.3616164794494807</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.329846268181768</v>
+        <v>0.4450971744321919</v>
       </c>
       <c r="C9">
-        <v>0.2302378027473395</v>
+        <v>0.07181837290036697</v>
       </c>
       <c r="D9">
-        <v>0.09972609210642247</v>
+        <v>0.04346432451634996</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.424927132383516</v>
+        <v>0.676440501390978</v>
       </c>
       <c r="G9">
-        <v>0.3034126923647875</v>
+        <v>0.5141535033550042</v>
       </c>
       <c r="H9">
-        <v>0.2658931774177375</v>
+        <v>0.6608231476573962</v>
       </c>
       <c r="I9">
-        <v>0.2047952153116093</v>
+        <v>0.5037014632881132</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.479375822083881</v>
+        <v>0.4771261647522635</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.579261738671988</v>
+        <v>0.5213439396974877</v>
       </c>
       <c r="C10">
-        <v>0.2723273830986841</v>
+        <v>0.08470806200725178</v>
       </c>
       <c r="D10">
-        <v>0.1142246532814255</v>
+        <v>0.04843717985414742</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4537896452747745</v>
+        <v>0.671958843622825</v>
       </c>
       <c r="G10">
-        <v>0.3146877993622113</v>
+        <v>0.5062865295593966</v>
       </c>
       <c r="H10">
-        <v>0.2584361132622206</v>
+        <v>0.6499132925266977</v>
       </c>
       <c r="I10">
-        <v>0.1905749695447767</v>
+        <v>0.4915505192051661</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.755775233465954</v>
+        <v>0.5617153339884169</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.69332463314754</v>
+        <v>0.5559909254761237</v>
       </c>
       <c r="C11">
-        <v>0.2916053681455821</v>
+        <v>0.09055251108571838</v>
       </c>
       <c r="D11">
-        <v>0.120830601121483</v>
+        <v>0.05068667734784071</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.46881682551534</v>
+        <v>0.6705059061752721</v>
       </c>
       <c r="G11">
-        <v>0.3216905515802608</v>
+        <v>0.503236152446199</v>
       </c>
       <c r="H11">
-        <v>0.2560788595900476</v>
+        <v>0.6453549328246027</v>
       </c>
       <c r="I11">
-        <v>0.185269223676837</v>
+        <v>0.4864214135490244</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.88221109262463</v>
+        <v>0.6001338363440141</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.736623262614302</v>
+        <v>0.5691048892000481</v>
       </c>
       <c r="C12">
-        <v>0.2989285453621164</v>
+        <v>0.09276286006513601</v>
       </c>
       <c r="D12">
-        <v>0.1233343812880321</v>
+        <v>0.05153664235916722</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4748033638424261</v>
+        <v>0.6700401624983314</v>
       </c>
       <c r="G12">
-        <v>0.3246350858969294</v>
+        <v>0.5021573359756673</v>
       </c>
       <c r="H12">
-        <v>0.2553454857486201</v>
+        <v>0.6436870259283438</v>
       </c>
       <c r="I12">
-        <v>0.1834394224059324</v>
+        <v>0.4845365766452545</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.930212364816953</v>
+        <v>0.614672602170657</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.727293120547927</v>
+        <v>0.5662808436164823</v>
       </c>
       <c r="C13">
-        <v>0.2973502743435574</v>
+        <v>0.09228694819117322</v>
       </c>
       <c r="D13">
-        <v>0.1227950347872167</v>
+        <v>0.05135367114759504</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4735005001224764</v>
+        <v>0.6701367092741677</v>
       </c>
       <c r="G13">
-        <v>0.3239875182295151</v>
+        <v>0.5023862800913932</v>
       </c>
       <c r="H13">
-        <v>0.2554961730554481</v>
+        <v>0.6440436480127971</v>
       </c>
       <c r="I13">
-        <v>0.1838253230519449</v>
+        <v>0.4849399527414846</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.919868602561053</v>
+        <v>0.6115418509003803</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.696884610124044</v>
+        <v>0.5570699449509391</v>
       </c>
       <c r="C14">
-        <v>0.2922073639139739</v>
+        <v>0.09073441465719156</v>
       </c>
       <c r="D14">
-        <v>0.1210365390201531</v>
+        <v>0.05075664224659704</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4693032689369332</v>
+        <v>0.6704658953826552</v>
       </c>
       <c r="G14">
-        <v>0.3219267935031098</v>
+        <v>0.5031458666745436</v>
       </c>
       <c r="H14">
-        <v>0.2560152700153395</v>
+        <v>0.6452165454275871</v>
       </c>
       <c r="I14">
-        <v>0.1851150174811842</v>
+        <v>0.4862651947491194</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.886157593442817</v>
+        <v>0.6013301431432296</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.678272841425354</v>
+        <v>0.5514271909033823</v>
       </c>
       <c r="C15">
-        <v>0.2890603101423608</v>
+        <v>0.08978307424254695</v>
       </c>
       <c r="D15">
-        <v>0.1199597259054173</v>
+        <v>0.05039069975727273</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4667716185404061</v>
+        <v>0.670678535934897</v>
       </c>
       <c r="G15">
-        <v>0.3207033851783905</v>
+        <v>0.5036210807171102</v>
       </c>
       <c r="H15">
-        <v>0.2563542959806711</v>
+        <v>0.6459425661280136</v>
       </c>
       <c r="I15">
-        <v>0.1859287262137173</v>
+        <v>0.4870844291604328</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.865525297536863</v>
+        <v>0.5950739228683801</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.571821162322806</v>
+        <v>0.5190788584209827</v>
       </c>
       <c r="C16">
-        <v>0.2710705092465275</v>
+        <v>0.08432572286402262</v>
       </c>
       <c r="D16">
-        <v>0.1137932121219905</v>
+        <v>0.04828991068630728</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4528477127372454</v>
+        <v>0.6720656026330047</v>
       </c>
       <c r="G16">
-        <v>0.3142698103579988</v>
+        <v>0.506496537929273</v>
       </c>
       <c r="H16">
-        <v>0.2586118669666106</v>
+        <v>0.6502193390182995</v>
       </c>
       <c r="I16">
-        <v>0.1909461334165172</v>
+        <v>0.4918937485321884</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.747528291043977</v>
+        <v>0.5592033016101254</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.506683780135205</v>
+        <v>0.4992240120652696</v>
       </c>
       <c r="C17">
-        <v>0.260070807248411</v>
+        <v>0.0809728669148484</v>
       </c>
       <c r="D17">
-        <v>0.1100134496893332</v>
+        <v>0.04699786318006716</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4448078396405748</v>
+        <v>0.673066712620269</v>
       </c>
       <c r="G17">
-        <v>0.3108189706940294</v>
+        <v>0.5083960882092953</v>
       </c>
       <c r="H17">
-        <v>0.2602690905857727</v>
+        <v>0.6529466721464203</v>
       </c>
       <c r="I17">
-        <v>0.1943304036825708</v>
+        <v>0.4949462631838166</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.675335476959646</v>
+        <v>0.5371816214112073</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.46927398223238</v>
+        <v>0.4878004853632092</v>
       </c>
       <c r="C18">
-        <v>0.2537561527390437</v>
+        <v>0.07904259565188454</v>
       </c>
       <c r="D18">
-        <v>0.1078403685056912</v>
+        <v>0.04625352101169256</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4403606320497531</v>
+        <v>0.6736976492254456</v>
       </c>
       <c r="G18">
-        <v>0.3090090032137454</v>
+        <v>0.5095383709829235</v>
       </c>
       <c r="H18">
-        <v>0.2613190328851758</v>
+        <v>0.6545534398435819</v>
       </c>
       <c r="I18">
-        <v>0.1963856497274215</v>
+        <v>0.4967394809724013</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.633876582978843</v>
+        <v>0.5245095794254553</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.456616649506259</v>
+        <v>0.4839320859147733</v>
       </c>
       <c r="C19">
-        <v>0.251620073486535</v>
+        <v>0.07838873229835031</v>
       </c>
       <c r="D19">
-        <v>0.1071047400294134</v>
+        <v>0.0460012965096297</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4388846229810994</v>
+        <v>0.6739207346134108</v>
       </c>
       <c r="G19">
-        <v>0.3084255292687033</v>
+        <v>0.5099336565836268</v>
       </c>
       <c r="H19">
-        <v>0.2616908367183655</v>
+        <v>0.6551040016788718</v>
       </c>
       <c r="I19">
-        <v>0.1970998353875579</v>
+        <v>0.4973530683774499</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.619849748713989</v>
+        <v>0.5202180749984677</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.51361188964529</v>
+        <v>0.5013379657148676</v>
       </c>
       <c r="C20">
-        <v>0.2612404647449296</v>
+        <v>0.08132997063459868</v>
       </c>
       <c r="D20">
-        <v>0.1104157095608542</v>
+        <v>0.04713552741313265</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4456452042491676</v>
+        <v>0.6729544359901425</v>
       </c>
       <c r="G20">
-        <v>0.3111680571612681</v>
+        <v>0.5081887305473387</v>
       </c>
       <c r="H20">
-        <v>0.2600825897584969</v>
+        <v>0.6526524014907977</v>
       </c>
       <c r="I20">
-        <v>0.1939588069381522</v>
+        <v>0.4946174363950391</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.683013695251901</v>
+        <v>0.5395264670144115</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.705813306326093</v>
+        <v>0.5597755796346178</v>
       </c>
       <c r="C21">
-        <v>0.2937173017294867</v>
+        <v>0.09119050836380893</v>
       </c>
       <c r="D21">
-        <v>0.1215529845152759</v>
+        <v>0.05093205526033273</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4705278688006302</v>
+        <v>0.6703669117202651</v>
       </c>
       <c r="G21">
-        <v>0.3225239389827834</v>
+        <v>0.5029206845177612</v>
       </c>
       <c r="H21">
-        <v>0.2558583891998438</v>
+        <v>0.6448704557493272</v>
       </c>
       <c r="I21">
-        <v>0.1847312340291793</v>
+        <v>0.4858743788228175</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.896055818020955</v>
+        <v>0.6043298318018913</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.83205273252787</v>
+        <v>0.5979321070228139</v>
       </c>
       <c r="C22">
-        <v>0.3150791672004516</v>
+        <v>0.0976184897679957</v>
       </c>
       <c r="D22">
-        <v>0.1288453500367126</v>
+        <v>0.05340237897107158</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4885278704049441</v>
+        <v>0.6691681662085145</v>
       </c>
       <c r="G22">
-        <v>0.3316640820671779</v>
+        <v>0.4999225654262318</v>
       </c>
       <c r="H22">
-        <v>0.2540313698796552</v>
+        <v>0.6401240312401626</v>
       </c>
       <c r="I22">
-        <v>0.1797522501935767</v>
+        <v>0.4804951836124154</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.036018194873805</v>
+        <v>0.6466269838228982</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.7646125973518</v>
+        <v>0.5775707349841639</v>
       </c>
       <c r="C23">
-        <v>0.3036639953903091</v>
+        <v>0.09418928182506647</v>
       </c>
       <c r="D23">
-        <v>0.1249517783702032</v>
+        <v>0.05208493614858867</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4787538099050295</v>
+        <v>0.6697628381016187</v>
       </c>
       <c r="G23">
-        <v>0.326620421643085</v>
+        <v>0.5014819088025178</v>
       </c>
       <c r="H23">
-        <v>0.2549173946800209</v>
+        <v>0.6426261988853668</v>
       </c>
       <c r="I23">
-        <v>0.1823091557161653</v>
+        <v>0.4833354680440038</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.961243368753458</v>
+        <v>0.6240574947327104</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.510479572665133</v>
+        <v>0.5003822743572925</v>
       </c>
       <c r="C24">
-        <v>0.2607116341799838</v>
+        <v>0.08116853235432586</v>
       </c>
       <c r="D24">
-        <v>0.1102338480698961</v>
+        <v>0.04707329416564221</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.445266088289074</v>
+        <v>0.6730050237500151</v>
       </c>
       <c r="G24">
-        <v>0.3110096950462662</v>
+        <v>0.5082823205819622</v>
       </c>
       <c r="H24">
-        <v>0.2601666048612472</v>
+        <v>0.652785320437026</v>
       </c>
       <c r="I24">
-        <v>0.1941264654024799</v>
+        <v>0.4947659797371102</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.679542232010562</v>
+        <v>0.5384663980447328</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.238412890692331</v>
+        <v>0.4169887761095481</v>
       </c>
       <c r="C25">
-        <v>0.2148283819439314</v>
+        <v>0.06705505241605181</v>
       </c>
       <c r="D25">
-        <v>0.09439150224121562</v>
+        <v>0.04162208377825749</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4158352029498005</v>
+        <v>0.6786088524080398</v>
       </c>
       <c r="G25">
-        <v>0.3007759222539192</v>
+        <v>0.5175169271029745</v>
       </c>
       <c r="H25">
-        <v>0.2694917623756012</v>
+        <v>0.6651991160824693</v>
       </c>
       <c r="I25">
-        <v>0.2109874053784253</v>
+        <v>0.5085284357418551</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.37807217849047</v>
+        <v>0.4459248298406635</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3554802434101418</v>
+        <v>1.039185957114711</v>
       </c>
       <c r="C2">
-        <v>0.05660438742661711</v>
+        <v>0.1812844645762652</v>
       </c>
       <c r="D2">
-        <v>0.03757020545477019</v>
+        <v>0.08272823466133161</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6845382931069679</v>
+        <v>0.3991330262650408</v>
       </c>
       <c r="G2">
-        <v>0.5259383617795876</v>
+        <v>0.2981356489860616</v>
       </c>
       <c r="H2">
-        <v>0.675590038956436</v>
+        <v>0.2791587779147093</v>
       </c>
       <c r="I2">
-        <v>0.5198898788286144</v>
+        <v>0.2265348620242307</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3776068288211434</v>
+        <v>1.157371405216139</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.313734412238091</v>
+        <v>0.904547794617713</v>
       </c>
       <c r="C3">
-        <v>0.04948523728137388</v>
+        <v>0.1586358945130399</v>
       </c>
       <c r="D3">
-        <v>0.03480088713079255</v>
+        <v>0.07481270568869292</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6896774899984806</v>
+        <v>0.3905532694842861</v>
       </c>
       <c r="G3">
-        <v>0.5326517035250475</v>
+        <v>0.2990413224600132</v>
       </c>
       <c r="H3">
-        <v>0.6834116675867463</v>
+        <v>0.2872981429653976</v>
       </c>
       <c r="I3">
-        <v>0.5283536874320394</v>
+        <v>0.2388404269421542</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3311996585133841</v>
+        <v>1.008240199074891</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2880747149133924</v>
+        <v>0.8219763668324163</v>
       </c>
       <c r="C4">
-        <v>0.04509613675492119</v>
+        <v>0.1447518085978885</v>
       </c>
       <c r="D4">
-        <v>0.03308921796278952</v>
+        <v>0.06994347414159563</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.693384463098262</v>
+        <v>0.3865262189234429</v>
       </c>
       <c r="G4">
-        <v>0.5372680579063598</v>
+        <v>0.3008167537037068</v>
       </c>
       <c r="H4">
-        <v>0.688598519256459</v>
+        <v>0.2930301021234598</v>
       </c>
       <c r="I4">
-        <v>0.5339266446186581</v>
+        <v>0.2472115469156275</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3026548507440339</v>
+        <v>0.9167847040528727</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2776118224371089</v>
+        <v>0.7883402054915223</v>
       </c>
       <c r="C5">
-        <v>0.04330309629078499</v>
+        <v>0.1390969111650264</v>
       </c>
       <c r="D5">
-        <v>0.03238890267108729</v>
+        <v>0.06795649189839992</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6950335804331615</v>
+        <v>0.385181711297669</v>
       </c>
       <c r="G5">
-        <v>0.5392732859679015</v>
+        <v>0.3018313799305616</v>
       </c>
       <c r="H5">
-        <v>0.6908088127185152</v>
+        <v>0.2955436762055044</v>
       </c>
       <c r="I5">
-        <v>0.5362921352305463</v>
+        <v>0.2508198105881689</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2910104686690431</v>
+        <v>0.8795299028529939</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.275874100272631</v>
+        <v>0.7827553562635501</v>
       </c>
       <c r="C6">
-        <v>0.04300509646338924</v>
+        <v>0.1381580265384628</v>
       </c>
       <c r="D6">
-        <v>0.03227244827953513</v>
+        <v>0.06762637752659373</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6953157746269412</v>
+        <v>0.3849759284018148</v>
       </c>
       <c r="G6">
-        <v>0.5396137352564239</v>
+        <v>0.3020170022161466</v>
       </c>
       <c r="H6">
-        <v>0.6911816641711326</v>
+        <v>0.2959715936138352</v>
       </c>
       <c r="I6">
-        <v>0.536690625116206</v>
+        <v>0.2514306269092277</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2890762119579904</v>
+        <v>0.8733442267605653</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2879336336567917</v>
+        <v>0.8215227030768517</v>
       </c>
       <c r="C7">
-        <v>0.04507197311023958</v>
+        <v>0.1446755359397116</v>
       </c>
       <c r="D7">
-        <v>0.03307978452823335</v>
+        <v>0.06991668863385314</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6934061431470369</v>
+        <v>0.3865069056549615</v>
       </c>
       <c r="G7">
-        <v>0.5372945993064349</v>
+        <v>0.3008292784842723</v>
       </c>
       <c r="H7">
-        <v>0.6886279369283201</v>
+        <v>0.2930632902216743</v>
       </c>
       <c r="I7">
-        <v>0.5339581641246927</v>
+        <v>0.247259422128252</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3024978589132274</v>
+        <v>0.9162822337852958</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3410923409788609</v>
+        <v>0.992735099908856</v>
       </c>
       <c r="C8">
-        <v>0.05415345510049008</v>
+        <v>0.1734689974360037</v>
       </c>
       <c r="D8">
-        <v>0.0366177148297453</v>
+        <v>0.08000055717468513</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6861957186165384</v>
+        <v>0.3959076013133469</v>
       </c>
       <c r="G8">
-        <v>0.5281503554570719</v>
+        <v>0.2981852914054741</v>
       </c>
       <c r="H8">
-        <v>0.6782071453807603</v>
+        <v>0.2818085546004241</v>
       </c>
       <c r="I8">
-        <v>0.5227300603538687</v>
+        <v>0.230603587843909</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3616164794494807</v>
+        <v>1.105919038757349</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4450971744321919</v>
+        <v>1.329846268181797</v>
       </c>
       <c r="C9">
-        <v>0.07181837290036697</v>
+        <v>0.2302378027473821</v>
       </c>
       <c r="D9">
-        <v>0.04346432451634996</v>
+        <v>0.09972609210652195</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.676440501390978</v>
+        <v>0.4249271323834947</v>
       </c>
       <c r="G9">
-        <v>0.5141535033550042</v>
+        <v>0.3034126923647094</v>
       </c>
       <c r="H9">
-        <v>0.6608231476573962</v>
+        <v>0.2658931774177375</v>
       </c>
       <c r="I9">
-        <v>0.5037014632881132</v>
+        <v>0.2047952153116022</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4771261647522635</v>
+        <v>1.479375822083881</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5213439396974877</v>
+        <v>1.579261738672074</v>
       </c>
       <c r="C10">
-        <v>0.08470806200725178</v>
+        <v>0.2723273830986983</v>
       </c>
       <c r="D10">
-        <v>0.04843717985414742</v>
+        <v>0.1142246532815392</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.671958843622825</v>
+        <v>0.4537896452747745</v>
       </c>
       <c r="G10">
-        <v>0.5062865295593966</v>
+        <v>0.3146877993622255</v>
       </c>
       <c r="H10">
-        <v>0.6499132925266977</v>
+        <v>0.2584361132622135</v>
       </c>
       <c r="I10">
-        <v>0.4915505192051661</v>
+        <v>0.1905749695447945</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5617153339884169</v>
+        <v>1.755775233466068</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5559909254761237</v>
+        <v>1.693324633147569</v>
       </c>
       <c r="C11">
-        <v>0.09055251108571838</v>
+        <v>0.2916053681453548</v>
       </c>
       <c r="D11">
-        <v>0.05068667734784071</v>
+        <v>0.1208306011215967</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6705059061752721</v>
+        <v>0.4688168255153329</v>
       </c>
       <c r="G11">
-        <v>0.503236152446199</v>
+        <v>0.3216905515802608</v>
       </c>
       <c r="H11">
-        <v>0.6453549328246027</v>
+        <v>0.2560788595899339</v>
       </c>
       <c r="I11">
-        <v>0.4864214135490244</v>
+        <v>0.185269223676837</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6001338363440141</v>
+        <v>1.882211092624658</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5691048892000481</v>
+        <v>1.73662326261433</v>
       </c>
       <c r="C12">
-        <v>0.09276286006513601</v>
+        <v>0.2989285453620312</v>
       </c>
       <c r="D12">
-        <v>0.05153664235916722</v>
+        <v>0.1233343812880463</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6700401624983314</v>
+        <v>0.4748033638424189</v>
       </c>
       <c r="G12">
-        <v>0.5021573359756673</v>
+        <v>0.3246350858970573</v>
       </c>
       <c r="H12">
-        <v>0.6436870259283438</v>
+        <v>0.2553454857485065</v>
       </c>
       <c r="I12">
-        <v>0.4845365766452545</v>
+        <v>0.1834394224059359</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.614672602170657</v>
+        <v>1.930212364816981</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5662808436164823</v>
+        <v>1.727293120548069</v>
       </c>
       <c r="C13">
-        <v>0.09228694819117322</v>
+        <v>0.2973502743438132</v>
       </c>
       <c r="D13">
-        <v>0.05135367114759504</v>
+        <v>0.1227950347870888</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6701367092741677</v>
+        <v>0.4735005001224906</v>
       </c>
       <c r="G13">
-        <v>0.5023862800913932</v>
+        <v>0.3239875182294583</v>
       </c>
       <c r="H13">
-        <v>0.6440436480127971</v>
+        <v>0.2554961730554481</v>
       </c>
       <c r="I13">
-        <v>0.4849399527414846</v>
+        <v>0.1838253230519342</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6115418509003803</v>
+        <v>1.91986860256111</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5570699449509391</v>
+        <v>1.696884610123959</v>
       </c>
       <c r="C14">
-        <v>0.09073441465719156</v>
+        <v>0.2922073639141729</v>
       </c>
       <c r="D14">
-        <v>0.05075664224659704</v>
+        <v>0.1210365390200963</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6704658953826552</v>
+        <v>0.4693032689369261</v>
       </c>
       <c r="G14">
-        <v>0.5031458666745436</v>
+        <v>0.3219267935031098</v>
       </c>
       <c r="H14">
-        <v>0.6452165454275871</v>
+        <v>0.2560152700153395</v>
       </c>
       <c r="I14">
-        <v>0.4862651947491194</v>
+        <v>0.1851150174811877</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6013301431432296</v>
+        <v>1.886157593443016</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5514271909033823</v>
+        <v>1.678272841425525</v>
       </c>
       <c r="C15">
-        <v>0.08978307424254695</v>
+        <v>0.2890603101423608</v>
       </c>
       <c r="D15">
-        <v>0.05039069975727273</v>
+        <v>0.1199597259053888</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.670678535934897</v>
+        <v>0.4667716185404061</v>
       </c>
       <c r="G15">
-        <v>0.5036210807171102</v>
+        <v>0.3207033851784047</v>
       </c>
       <c r="H15">
-        <v>0.6459425661280136</v>
+        <v>0.2563542959806568</v>
       </c>
       <c r="I15">
-        <v>0.4870844291604328</v>
+        <v>0.1859287262137315</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5950739228683801</v>
+        <v>1.865525297536806</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5190788584209827</v>
+        <v>1.571821162322777</v>
       </c>
       <c r="C16">
-        <v>0.08432572286402262</v>
+        <v>0.2710705092465275</v>
       </c>
       <c r="D16">
-        <v>0.04828991068630728</v>
+        <v>0.1137932121221183</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6720656026330047</v>
+        <v>0.4528477127372597</v>
       </c>
       <c r="G16">
-        <v>0.506496537929273</v>
+        <v>0.3142698103579704</v>
       </c>
       <c r="H16">
-        <v>0.6502193390182995</v>
+        <v>0.2586118669666106</v>
       </c>
       <c r="I16">
-        <v>0.4918937485321884</v>
+        <v>0.1909461334165066</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5592033016101254</v>
+        <v>1.747528291043949</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4992240120652696</v>
+        <v>1.506683780135091</v>
       </c>
       <c r="C17">
-        <v>0.0809728669148484</v>
+        <v>0.2600708072483542</v>
       </c>
       <c r="D17">
-        <v>0.04699786318006716</v>
+        <v>0.1100134496891769</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.673066712620269</v>
+        <v>0.4448078396405606</v>
       </c>
       <c r="G17">
-        <v>0.5083960882092953</v>
+        <v>0.3108189706941005</v>
       </c>
       <c r="H17">
-        <v>0.6529466721464203</v>
+        <v>0.2602690905858864</v>
       </c>
       <c r="I17">
-        <v>0.4949462631838166</v>
+        <v>0.1943304036825531</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5371816214112073</v>
+        <v>1.675335476959617</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4878004853632092</v>
+        <v>1.469273982232266</v>
       </c>
       <c r="C18">
-        <v>0.07904259565188454</v>
+        <v>0.2537561527388306</v>
       </c>
       <c r="D18">
-        <v>0.04625352101169256</v>
+        <v>0.1078403685059328</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6736976492254456</v>
+        <v>0.4403606320497602</v>
       </c>
       <c r="G18">
-        <v>0.5095383709829235</v>
+        <v>0.3090090032137525</v>
       </c>
       <c r="H18">
-        <v>0.6545534398435819</v>
+        <v>0.2613190328851758</v>
       </c>
       <c r="I18">
-        <v>0.4967394809724013</v>
+        <v>0.1963856497274215</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5245095794254553</v>
+        <v>1.633876582978729</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4839320859147733</v>
+        <v>1.456616649506145</v>
       </c>
       <c r="C19">
-        <v>0.07838873229835031</v>
+        <v>0.2516200734860803</v>
       </c>
       <c r="D19">
-        <v>0.0460012965096297</v>
+        <v>0.1071047400293637</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6739207346134108</v>
+        <v>0.4388846229810781</v>
       </c>
       <c r="G19">
-        <v>0.5099336565836268</v>
+        <v>0.3084255292686677</v>
       </c>
       <c r="H19">
-        <v>0.6551040016788718</v>
+        <v>0.2616908367183584</v>
       </c>
       <c r="I19">
-        <v>0.4973530683774499</v>
+        <v>0.1970998353875402</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5202180749984677</v>
+        <v>1.619849748714188</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5013379657148676</v>
+        <v>1.513611889645261</v>
       </c>
       <c r="C20">
-        <v>0.08132997063459868</v>
+        <v>0.2612404647448443</v>
       </c>
       <c r="D20">
-        <v>0.04713552741313265</v>
+        <v>0.1104157095609395</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6729544359901425</v>
+        <v>0.445645204249189</v>
       </c>
       <c r="G20">
-        <v>0.5081887305473387</v>
+        <v>0.3111680571612538</v>
       </c>
       <c r="H20">
-        <v>0.6526524014907977</v>
+        <v>0.2600825897586105</v>
       </c>
       <c r="I20">
-        <v>0.4946174363950391</v>
+        <v>0.1939588069381948</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5395264670144115</v>
+        <v>1.683013695251873</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5597755796346178</v>
+        <v>1.705813306326007</v>
       </c>
       <c r="C21">
-        <v>0.09119050836380893</v>
+        <v>0.2937173017294583</v>
       </c>
       <c r="D21">
-        <v>0.05093205526033273</v>
+        <v>0.1215529845154464</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6703669117202651</v>
+        <v>0.4705278688006373</v>
       </c>
       <c r="G21">
-        <v>0.5029206845177612</v>
+        <v>0.3225239389827266</v>
       </c>
       <c r="H21">
-        <v>0.6448704557493272</v>
+        <v>0.2558583891998438</v>
       </c>
       <c r="I21">
-        <v>0.4858743788228175</v>
+        <v>0.1847312340291865</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6043298318018913</v>
+        <v>1.896055818020841</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5979321070228139</v>
+        <v>1.83205273252787</v>
       </c>
       <c r="C22">
-        <v>0.0976184897679957</v>
+        <v>0.3150791672004516</v>
       </c>
       <c r="D22">
-        <v>0.05340237897107158</v>
+        <v>0.1288453500364284</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6691681662085145</v>
+        <v>0.4885278704049298</v>
       </c>
       <c r="G22">
-        <v>0.4999225654262318</v>
+        <v>0.3316640820670926</v>
       </c>
       <c r="H22">
-        <v>0.6401240312401626</v>
+        <v>0.2540313698796552</v>
       </c>
       <c r="I22">
-        <v>0.4804951836124154</v>
+        <v>0.1797522501935696</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6466269838228982</v>
+        <v>2.036018194873691</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5775707349841639</v>
+        <v>1.764612597351856</v>
       </c>
       <c r="C23">
-        <v>0.09418928182506647</v>
+        <v>0.3036639953905365</v>
       </c>
       <c r="D23">
-        <v>0.05208493614858867</v>
+        <v>0.1249517783700611</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6697628381016187</v>
+        <v>0.4787538099050153</v>
       </c>
       <c r="G23">
-        <v>0.5014819088025178</v>
+        <v>0.3266204216430708</v>
       </c>
       <c r="H23">
-        <v>0.6426261988853668</v>
+        <v>0.2549173946800209</v>
       </c>
       <c r="I23">
-        <v>0.4833354680440038</v>
+        <v>0.1823091557161653</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6240574947327104</v>
+        <v>1.961243368753429</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5003822743572925</v>
+        <v>1.510479572665076</v>
       </c>
       <c r="C24">
-        <v>0.08116853235432586</v>
+        <v>0.2607116341799838</v>
       </c>
       <c r="D24">
-        <v>0.04707329416564221</v>
+        <v>0.1102338480699245</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6730050237500151</v>
+        <v>0.4452660882890598</v>
       </c>
       <c r="G24">
-        <v>0.5082823205819622</v>
+        <v>0.3110096950463159</v>
       </c>
       <c r="H24">
-        <v>0.652785320437026</v>
+        <v>0.2601666048611335</v>
       </c>
       <c r="I24">
-        <v>0.4947659797371102</v>
+        <v>0.1941264654024835</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5384663980447328</v>
+        <v>1.679542232010562</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4169887761095481</v>
+        <v>1.238412890692388</v>
       </c>
       <c r="C25">
-        <v>0.06705505241605181</v>
+        <v>0.2148283819437751</v>
       </c>
       <c r="D25">
-        <v>0.04162208377825749</v>
+        <v>0.09439150224105219</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6786088524080398</v>
+        <v>0.4158352029498076</v>
       </c>
       <c r="G25">
-        <v>0.5175169271029745</v>
+        <v>0.300775922253969</v>
       </c>
       <c r="H25">
-        <v>0.6651991160824693</v>
+        <v>0.2694917623756012</v>
       </c>
       <c r="I25">
-        <v>0.5085284357418551</v>
+        <v>0.210987405378404</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4459248298406635</v>
+        <v>1.378072178490442</v>
       </c>
       <c r="L25">
         <v>0</v>
